--- a/data-reconciliation-app/docs/reconciliation-sample.xlsx
+++ b/data-reconciliation-app/docs/reconciliation-sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/aymanmahmoud_microsoft_com/Documents/Projects/ccf/_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="8_{2C9BC0CC-2421-49E2-80EF-A98D994807FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82B3E06-8C77-4F3F-9FD0-C9EB2C129361}"/>
+  <xr:revisionPtr revIDLastSave="843" documentId="8_{2C9BC0CC-2421-49E2-80EF-A98D994807FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2183E45B-48CB-4FE1-97E5-2208D40FEE8D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{AB38C658-E492-48D0-9CBC-FCC9163F229D}"/>
+    <workbookView xWindow="4812" yWindow="-17388" windowWidth="41496" windowHeight="16776" xr2:uid="{AB38C658-E492-48D0-9CBC-FCC9163F229D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>IN_CONSENSUS</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   <si>
     <t>Members encrypt and submit their data through 
 ingestion endpoints</t>
+  </si>
+  <si>
+    <t>Group status</t>
   </si>
 </sst>
 </file>
@@ -1310,6 +1310,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,15 +1367,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,30 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,15 +1401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
+      <xdr:colOff>37581</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:rowOff>177159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>596699</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>20950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1424,8 +1424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524499" y="2682239"/>
-          <a:ext cx="563881" cy="800101"/>
+          <a:off x="5662526" y="2657123"/>
+          <a:ext cx="559118" cy="799754"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1824,55 +1824,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1607F83-5CA2-4455-9254-8521BF3AF94F}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.53125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="8.53125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-    </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="66"/>
+    </row>
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -1892,223 +1892,223 @@
       <c r="Q2" s="36"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="20"/>
-      <c r="G3" s="72" t="s">
+      <c r="H3" s="58"/>
+      <c r="K3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="K3" s="72" t="s">
+      <c r="L3" s="58"/>
+      <c r="O3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="O3" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="65"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="37"/>
       <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="37"/>
       <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="37"/>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="37"/>
       <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="37"/>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
@@ -2117,10 +2117,10 @@
       <c r="I10" s="24"/>
       <c r="J10" s="18"/>
       <c r="K10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -2129,7 +2129,7 @@
       <c r="Q10" s="39"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="40"/>
       <c r="C11" s="41"/>
@@ -2149,7 +2149,7 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="12"/>
       <c r="D12" s="9"/>
@@ -2168,129 +2168,129 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="61.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="H13" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="K14" s="5"/>
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F16" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="76"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F17" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F18" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F19" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F20" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F21" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B23" s="18"/>
       <c r="C23" s="11"/>
       <c r="D23" s="7"/>
@@ -2309,7 +2309,7 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="E24" s="16"/>
       <c r="F24" s="28"/>
@@ -2319,19 +2319,19 @@
       <c r="M24" s="6"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="31.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
       <c r="F25" s="26"/>
-      <c r="H25" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="76"/>
+      <c r="H25" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="54"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B26" s="19"/>
       <c r="C26" s="24"/>
       <c r="D26" s="18"/>
@@ -2351,7 +2351,7 @@
       <c r="R26" s="18"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
@@ -2372,84 +2372,84 @@
       <c r="R27" s="36"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
-      <c r="C28" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
+      <c r="C28" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
-      <c r="K28" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="O28" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
+      <c r="G28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
       <c r="R28" s="46"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="13" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="46"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="21">
         <v>3</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" s="21">
         <v>3</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M30" s="21">
         <v>3</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="21">
         <v>1</v>
@@ -2485,14 +2485,14 @@
       <c r="R30" s="46"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="21">
         <v>4</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="21">
         <v>4</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31" s="21">
         <v>4</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="21">
         <v>4</v>
@@ -2528,14 +2528,14 @@
       <c r="R31" s="46"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="21">
         <v>4</v>
@@ -2545,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="21">
         <v>4</v>
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32" s="21">
         <v>4</v>
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="21">
         <v>4</v>
@@ -2571,14 +2571,14 @@
       <c r="R32" s="46"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="37"/>
       <c r="C33" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="21">
         <v>4</v>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="21">
         <v>4</v>
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33" s="21">
         <v>4</v>
@@ -2606,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="21">
         <v>4</v>
@@ -2614,14 +2614,14 @@
       <c r="R33" s="46"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="37"/>
       <c r="C34" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="21">
         <v>2</v>
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" s="21">
         <v>2</v>
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M34" s="21">
         <v>2</v>
@@ -2649,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="21">
         <v>2</v>
@@ -2657,14 +2657,14 @@
       <c r="R34" s="46"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="21">
         <v>2</v>
@@ -2672,10 +2672,10 @@
       <c r="F35" s="2"/>
       <c r="I35" s="1"/>
       <c r="K35" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M35" s="21">
         <v>2</v>
@@ -2683,7 +2683,7 @@
       <c r="R35" s="46"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="40"/>
       <c r="C36" s="48"/>
@@ -2704,7 +2704,7 @@
       <c r="R36" s="53"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B37" s="17"/>
       <c r="C37" s="25"/>
       <c r="D37" s="16"/>
@@ -2724,11 +2724,11 @@
       <c r="R37" s="16"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="F38" s="26"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B39" s="17"/>
       <c r="C39" s="25"/>
       <c r="D39" s="16"/>
@@ -2747,24 +2747,15 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="I46" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G48" s="4"/>
       <c r="I48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="H13:K13"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="F22:K22"/>
@@ -2775,6 +2766,15 @@
     <mergeCell ref="F19:K19"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="F21:K21"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
